--- a/data/new_data/xlsx/subway_data/line8.xlsx
+++ b/data/new_data/xlsx/subway_data/line8.xlsx
@@ -1,33 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\data\new_data\xlsx\subway_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A22343-3AD1-4C4D-BE79-C877F3257224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13276" windowWidth="20715" xWindow="-98" yWindow="-98"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>梨园</t>
+  </si>
+  <si>
+    <t>岳家嘴</t>
+  </si>
+  <si>
+    <t>汪家墩</t>
+  </si>
+  <si>
+    <t>徐东</t>
+  </si>
+  <si>
+    <t>徐家棚</t>
+  </si>
+  <si>
+    <t>黄浦路</t>
+  </si>
+  <si>
+    <t>赵家条</t>
+  </si>
+  <si>
+    <t>竹叶山</t>
+  </si>
+  <si>
+    <t>中一路</t>
+  </si>
+  <si>
+    <t>塔子湖</t>
+  </si>
+  <si>
+    <t>宏图大道</t>
+  </si>
+  <si>
+    <t>金潭路</t>
+  </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>8号线</t>
+  </si>
+  <si>
+    <t>terminalcode</t>
+  </si>
+  <si>
+    <t>terminalname</t>
+  </si>
+  <si>
+    <t>linecode</t>
+  </si>
+  <si>
+    <t>linename</t>
+  </si>
+  <si>
+    <t>firsttime</t>
+  </si>
+  <si>
+    <t>lasttime</t>
+  </si>
+  <si>
+    <t>wfirsttime</t>
+  </si>
+  <si>
+    <t>wlasttime</t>
+  </si>
+  <si>
+    <t>adjacentdistance</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,16 +125,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -352,384 +443,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>164</v>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>梨园</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.25</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="F1" s="1" t="n">
+      <c r="F2" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.25</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="H1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="H2" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>97</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>岳家嘴</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.2513888888888889</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.9597222222222223</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0.2513888888888889</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.9597222222222223</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="I3">
         <v>0.873</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>165</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汪家墩</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.2534722222222222</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0.9611111111111111</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>0.2534722222222222</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.9618055555555556</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.318</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.96180555555555558</v>
+      </c>
+      <c r="I4">
+        <v>1.3180000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>166</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>徐东</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0.2548611111111111</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0.9625</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.25</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>0.9631944444444445</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="H5" s="1">
+        <v>0.96319444444444446</v>
+      </c>
+      <c r="I5">
         <v>0.747</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>160</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>徐家棚</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.25</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>0.9645833333333333</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0.2513888888888889</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.9652777777777778</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.992</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="F6" s="1">
+        <v>0.96458333333333335</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="I6">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>9</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>黄浦路</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>0.2527777777777778</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0.9673611111111111</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.2534722222222222</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.9673611111111111</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.494</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.25277777777777782</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.96736111111111112</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.96736111111111112</v>
+      </c>
+      <c r="I7">
+        <v>3.4940000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>74</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>赵家条</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.25</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>0.9694444444444444</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="F8" s="1">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.25</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>0.9694444444444444</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="H8" s="1">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="I8">
         <v>1.419</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>167</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>竹叶山</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0.2513888888888889</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0.9715277777777778</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0.2527777777777778</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0.9722222222222222</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.394</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.25277777777777782</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="I9">
+        <v>1.3939999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>168</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中一路</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>0.2534722222222222</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0.9729166666666667</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0.2548611111111111</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0.9736111111111111</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.574</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.97291666666666665</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.97361111111111109</v>
+      </c>
+      <c r="I10">
+        <v>1.5740000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>169</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>塔子湖</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="n">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.25</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="F10" s="1" t="n">
+      <c r="F11" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.25</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.648</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="H11" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I11">
+        <v>1.6479999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>63</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宏图大道</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>0.2520833333333333</v>
-      </c>
-      <c r="E11" s="1" t="n">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.9770833333333333</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>0.2513888888888889</v>
-      </c>
-      <c r="G11" s="1" t="n">
+      <c r="G12" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.9770833333333333</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I12">
         <v>1.89</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>170</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>金潭路</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0.9777777777777777</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>0.9784722222222222</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.855</v>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.97847222222222219</v>
+      </c>
+      <c r="I13">
+        <v>0.85499999999999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>